--- a/DDA_2016/Compgo_results/CompGOSilo2.xlsx
+++ b/DDA_2016/Compgo_results/CompGOSilo2.xlsx
@@ -792,7 +792,7 @@
     <col min="9" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -870,7 +870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -896,7 +896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -948,7 +948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="E51" s="2" t="s">
         <v>28</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="E52" s="2" t="s">
         <v>84</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="5:7" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:7" ht="45" x14ac:dyDescent="0.2">
       <c r="E53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="E57" s="2" t="s">
         <v>86</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="E60" s="2" t="s">
         <v>88</v>
       </c>
@@ -2093,12 +2093,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="F68" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="F69" s="2" t="s">
         <v>105</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="F72" s="2" t="s">
         <v>107</v>
       </c>

--- a/DDA_2016/Compgo_results/CompGOSilo2.xlsx
+++ b/DDA_2016/Compgo_results/CompGOSilo2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GOSlim" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="144">
   <si>
     <t>mRNA processing</t>
   </si>
@@ -387,6 +388,75 @@
   </si>
   <si>
     <t>establishment of protein localization</t>
+  </si>
+  <si>
+    <t>Metabolism</t>
+  </si>
+  <si>
+    <t>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</t>
+  </si>
+  <si>
+    <t>Generation of precursor metabolites and energy</t>
+  </si>
+  <si>
+    <t>Catabolism</t>
+  </si>
+  <si>
+    <t>Cell organization and biogenesis</t>
+  </si>
+  <si>
+    <t>Morphogenesis</t>
+  </si>
+  <si>
+    <t>Biosynthesis</t>
+  </si>
+  <si>
+    <t>Pooled Larvae Day 1</t>
+  </si>
+  <si>
+    <t>Biological process</t>
+  </si>
+  <si>
+    <t>Protein metabolism</t>
+  </si>
+  <si>
+    <t>Protein biosynthesis</t>
+  </si>
+  <si>
+    <t>Protein modification</t>
+  </si>
+  <si>
+    <t>Carbohydrate Metabolism</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Lipid metabolism</t>
+  </si>
+  <si>
+    <t>Protein transport</t>
+  </si>
+  <si>
+    <t>Day 3</t>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>Day 7</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Day 15</t>
   </si>
 </sst>
 </file>
@@ -472,6 +542,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -481,6 +556,3277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pooled</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Larvae Day 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>37.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7421-40E3-AE3B-BEBD8283617A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1"/>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="10000"/>
+          <a:lumOff val="90000"/>
+        </a:schemeClr>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Silo 2-23C Biological</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Processes during Settlement</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein transport</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lipid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>37.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A41A-4AF0-9021-536109088010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein transport</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lipid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>37.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A41A-4AF0-9021-536109088010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein transport</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lipid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>36.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A41A-4AF0-9021-536109088010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein transport</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lipid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>37.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A41A-4AF0-9021-536109088010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein transport</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lipid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>37.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A41A-4AF0-9021-536109088010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein transport</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lipid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A41A-4AF0-9021-536109088010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein transport</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lipid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>36.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A41A-4AF0-9021-536109088010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF3399"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein transport</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lipid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>39.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A41A-4AF0-9021-536109088010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="450810768"/>
+        <c:axId val="450803880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="450810768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450803880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450803880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450810768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="256">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E2B42D-0E61-4452-B9BC-0F058B5DDF4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A39D281-F98C-4704-87E1-2700E55601A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,7 +4128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2152,4 +5498,523 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2">
+        <v>37.78</v>
+      </c>
+      <c r="C2">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="D2">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="E2">
+        <v>37.08</v>
+      </c>
+      <c r="F2">
+        <v>37.75</v>
+      </c>
+      <c r="G2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H2">
+        <v>36.81</v>
+      </c>
+      <c r="I2">
+        <v>39.090000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>36.67</v>
+      </c>
+      <c r="C3">
+        <v>37.619999999999997</v>
+      </c>
+      <c r="D3">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="E3">
+        <v>35.96</v>
+      </c>
+      <c r="F3">
+        <v>34.64</v>
+      </c>
+      <c r="G3">
+        <v>34.24</v>
+      </c>
+      <c r="H3">
+        <v>35.58</v>
+      </c>
+      <c r="I3">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4">
+        <v>15.56</v>
+      </c>
+      <c r="C4">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="D4">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="E4">
+        <v>20.22</v>
+      </c>
+      <c r="F4">
+        <v>20.67</v>
+      </c>
+      <c r="G4">
+        <v>13.7</v>
+      </c>
+      <c r="H4">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="I4">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.98</v>
+      </c>
+      <c r="D5">
+        <v>1.68</v>
+      </c>
+      <c r="E5">
+        <v>3.37</v>
+      </c>
+      <c r="F5">
+        <v>2.79</v>
+      </c>
+      <c r="G5">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H5">
+        <v>1.23</v>
+      </c>
+      <c r="I5">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C6">
+        <v>1.98</v>
+      </c>
+      <c r="D6">
+        <v>5.04</v>
+      </c>
+      <c r="E6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F6">
+        <v>3.35</v>
+      </c>
+      <c r="G6">
+        <v>7.31</v>
+      </c>
+      <c r="H6">
+        <v>4.29</v>
+      </c>
+      <c r="I6">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.46</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.68</v>
+      </c>
+      <c r="E9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G9">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H9">
+        <v>3.07</v>
+      </c>
+      <c r="I9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.99</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.99</v>
+      </c>
+      <c r="D11">
+        <v>0.84</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.91</v>
+      </c>
+      <c r="H11">
+        <v>1.23</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.84</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.91</v>
+      </c>
+      <c r="H12">
+        <v>1.23</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.91</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" ref="B17:F17" si="0">SUM(B2:B16)</f>
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>99.99</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>99.150000000000034</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>99.990000000000009</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>102.00000000000001</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G2:G16)</f>
+        <v>99.97999999999999</v>
+      </c>
+      <c r="H17">
+        <f>SUM(H2:H16)</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="I17">
+        <f>SUM(I2:I16)</f>
+        <v>100.01999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DDA_2016/Compgo_results/CompGOSilo2.xlsx
+++ b/DDA_2016/Compgo_results/CompGOSilo2.xlsx
@@ -579,632 +579,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Pooled</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Larvae Day 1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6"/>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>GOSlim!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Biological process</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Metabolism</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Generation of precursor metabolites and energy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Catabolism</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cell organization and biogenesis</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Morphogenesis</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Protein modification</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Protein metabolism</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Protein biosynthesis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GOSlim!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>37.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7421-40E3-AE3B-BEBD8283617A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:pattFill prst="dkDnDiag">
-      <a:fgClr>
-        <a:schemeClr val="lt1"/>
-      </a:fgClr>
-      <a:bgClr>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="10000"/>
-          <a:lumOff val="90000"/>
-        </a:schemeClr>
-      </a:bgClr>
-    </a:pattFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1306,37 +680,37 @@
                   <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Generation of precursor metabolites and energy</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Catabolism</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Cell organization and biogenesis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Morphogenesis</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Protein modification</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Protein metabolism</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Protein biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Protein transport</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Carbohydrate Metabolism</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Transport</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
@@ -1375,19 +749,19 @@
                   <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1445,37 +819,37 @@
                   <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Generation of precursor metabolites and energy</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Catabolism</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Cell organization and biogenesis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Morphogenesis</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Protein modification</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Protein metabolism</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Protein biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Protein transport</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Carbohydrate Metabolism</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Transport</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
@@ -1508,22 +882,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1584,37 +958,37 @@
                   <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Generation of precursor metabolites and energy</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Catabolism</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Cell organization and biogenesis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Morphogenesis</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Protein modification</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Protein metabolism</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Protein biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Protein transport</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Carbohydrate Metabolism</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Transport</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
@@ -1638,28 +1012,28 @@
                   <c:v>16.809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.68</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.04</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.68</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1723,37 +1097,37 @@
                   <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Generation of precursor metabolites and energy</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Catabolism</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Cell organization and biogenesis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Morphogenesis</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Protein modification</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Protein metabolism</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Protein biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Protein transport</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Carbohydrate Metabolism</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Transport</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
@@ -1777,26 +1151,26 @@
                   <c:v>20.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3.37</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.1200000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.1200000000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1807,7 +1181,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1862,37 +1236,37 @@
                   <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Generation of precursor metabolites and energy</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Catabolism</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Cell organization and biogenesis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Morphogenesis</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Protein modification</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Protein metabolism</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Protein biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Protein transport</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Carbohydrate Metabolism</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Transport</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
@@ -1916,34 +1290,34 @@
                   <c:v>20.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.79</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.35</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.56000000000000005</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2001,37 +1375,37 @@
                   <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Generation of precursor metabolites and energy</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Catabolism</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Cell organization and biogenesis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Morphogenesis</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Protein modification</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Protein metabolism</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Protein biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Protein transport</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Carbohydrate Metabolism</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Transport</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
@@ -2055,25 +1429,25 @@
                   <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.2799999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.31</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.91</c:v>
@@ -2082,7 +1456,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2140,37 +1514,37 @@
                   <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Generation of precursor metabolites and energy</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Catabolism</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Cell organization and biogenesis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Morphogenesis</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Protein modification</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Protein metabolism</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Protein biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Protein transport</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Carbohydrate Metabolism</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Transport</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
@@ -2194,28 +1568,28 @@
                   <c:v>16.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.23</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.29</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.07</c:v>
+                  <c:v>1.23</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2279,37 +1653,37 @@
                   <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Generation of precursor metabolites and energy</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Catabolism</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Cell organization and biogenesis</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Morphogenesis</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Protein modification</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Protein metabolism</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Protein biosynthesis</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>Protein transport</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Carbohydrate Metabolism</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Transport</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
@@ -2333,37 +1707,37 @@
                   <c:v>14.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.82</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.55</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.64</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2664,590 +2038,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="256">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="dkDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="lt1"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="10000"/>
-            <a:lumOff val="90000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:ln w="50800">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="15875">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:alpha val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3757,51 +2548,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E2B42D-0E61-4452-B9BC-0F058B5DDF4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3820,7 +2575,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5504,8 +4259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5633,7 +4388,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>2.2200000000000002</v>
@@ -5642,27 +4397,27 @@
         <v>1.98</v>
       </c>
       <c r="D5">
-        <v>1.68</v>
+        <v>5.04</v>
       </c>
       <c r="E5">
-        <v>3.37</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F5">
-        <v>2.79</v>
+        <v>3.35</v>
       </c>
       <c r="G5">
-        <v>2.2799999999999998</v>
+        <v>7.31</v>
       </c>
       <c r="H5">
-        <v>1.23</v>
+        <v>4.29</v>
       </c>
       <c r="I5">
-        <v>1.82</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>2.2200000000000002</v>
@@ -5671,27 +4426,27 @@
         <v>1.98</v>
       </c>
       <c r="D6">
-        <v>5.04</v>
+        <v>1.68</v>
       </c>
       <c r="E6">
-        <v>1.1200000000000001</v>
+        <v>3.37</v>
       </c>
       <c r="F6">
-        <v>3.35</v>
+        <v>2.79</v>
       </c>
       <c r="G6">
-        <v>7.31</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H6">
-        <v>4.29</v>
+        <v>1.23</v>
       </c>
       <c r="I6">
-        <v>4.55</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>1.1100000000000001</v>
@@ -5700,48 +4455,48 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G7">
-        <v>0.46</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>1.1100000000000001</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5749,7 +4504,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>1.1100000000000001</v>
@@ -5758,33 +4513,33 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.68</v>
+        <v>0.84</v>
       </c>
       <c r="E9">
-        <v>1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2.2799999999999998</v>
+        <v>0.91</v>
       </c>
       <c r="H9">
-        <v>3.07</v>
+        <v>1.23</v>
       </c>
       <c r="I9">
-        <v>0.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C10">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5793,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -5807,57 +4562,57 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B11">
-        <v>1.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F11">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B12">
-        <v>1.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G12">
         <v>0.91</v>
       </c>
       <c r="H12">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -5865,13 +4620,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5880,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5889,15 +4644,15 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -5909,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5923,7 +4678,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5935,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -5947,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.64</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5981,23 +4736,23 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" ref="B17:F17" si="0">SUM(B2:B16)</f>
+        <f>SUM(B2:B16)</f>
         <v>100</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>SUM(C2:C16)</f>
         <v>99.99</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D16)</f>
         <v>99.150000000000034</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E16)</f>
         <v>99.990000000000009</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f>SUM(F2:F16)</f>
         <v>102.00000000000001</v>
       </c>
       <c r="G17">

--- a/DDA_2016/Compgo_results/CompGOSilo2.xlsx
+++ b/DDA_2016/Compgo_results/CompGOSilo2.xlsx
@@ -1789,7 +1789,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2548,15 +2548,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>419098</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4260,7 +4260,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4736,35 +4736,35 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f>SUM(B2:B16)</f>
+        <f t="shared" ref="B17:I17" si="0">SUM(B2:B16)</f>
         <v>100</v>
       </c>
       <c r="C17">
-        <f>SUM(C2:C16)</f>
+        <f t="shared" si="0"/>
         <v>99.99</v>
       </c>
       <c r="D17">
-        <f>SUM(D2:D16)</f>
+        <f t="shared" si="0"/>
         <v>99.150000000000034</v>
       </c>
       <c r="E17">
-        <f>SUM(E2:E16)</f>
+        <f t="shared" si="0"/>
         <v>99.990000000000009</v>
       </c>
       <c r="F17">
-        <f>SUM(F2:F16)</f>
+        <f t="shared" si="0"/>
         <v>102.00000000000001</v>
       </c>
       <c r="G17">
-        <f>SUM(G2:G16)</f>
+        <f t="shared" si="0"/>
         <v>99.97999999999999</v>
       </c>
       <c r="H17">
-        <f>SUM(H2:H16)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
       <c r="I17">
-        <f>SUM(I2:I16)</f>
+        <f t="shared" si="0"/>
         <v>100.01999999999998</v>
       </c>
     </row>

--- a/DDA_2016/Compgo_results/CompGOSilo2.xlsx
+++ b/DDA_2016/Compgo_results/CompGOSilo2.xlsx
@@ -1998,7 +1998,1770 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Silo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2-23C Biological Processes during Settlement</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Biological process</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.090000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>36.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nucleobase, nucleoside, nucleotide and nucleic acid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Catabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Generation of precursor metabolites and energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Biosynthesis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Protein metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Protein biosynthesis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cell organization and biogenesis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transport</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carbohydrate Metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Protein modification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Morphogenesis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Protein transport</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lipid metabolism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim!$B$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="402359248"/>
+        <c:axId val="402365152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="402359248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402365152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402365152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402359248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2543,6 +4306,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2576,6 +4842,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6A2D06-8D26-4FB0-ADD5-294E03D604C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4259,8 +6561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DDA_2016/Compgo_results/CompGOSilo2.xlsx
+++ b/DDA_2016/Compgo_results/CompGOSilo2.xlsx
@@ -3610,6 +3610,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>

--- a/DDA_2016/Compgo_results/CompGOSilo2.xlsx
+++ b/DDA_2016/Compgo_results/CompGOSilo2.xlsx
@@ -3546,17 +3546,14 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -6617,7 +6614,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DDA_2016/Compgo_results/CompGOSilo2.xlsx
+++ b/DDA_2016/Compgo_results/CompGOSilo2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -681,9 +681,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOSlim_silo2!$A$2:$A$16</c:f>
+              <c:f>GOSlim_silo2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Biological process</c:v>
                 </c:pt>
@@ -728,16 +728,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Organelle organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cell homeostasis</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cytoskeleton organizatino and biogenesis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOSlim_silo2!$B$2:$B$16</c:f>
+              <c:f>GOSlim_silo2!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>37.78</c:v>
                 </c:pt>
@@ -781,6 +790,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -820,9 +838,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOSlim_silo2!$A$2:$A$16</c:f>
+              <c:f>GOSlim_silo2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Biological process</c:v>
                 </c:pt>
@@ -867,16 +885,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Organelle organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cell homeostasis</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cytoskeleton organizatino and biogenesis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOSlim_silo2!$C$2:$C$16</c:f>
+              <c:f>GOSlim_silo2!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>37.619999999999997</c:v>
                 </c:pt>
@@ -920,6 +947,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -959,9 +995,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOSlim_silo2!$A$2:$A$16</c:f>
+              <c:f>GOSlim_silo2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Biological process</c:v>
                 </c:pt>
@@ -1006,16 +1042,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Organelle organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cell homeostasis</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cytoskeleton organizatino and biogenesis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOSlim_silo2!$D$2:$D$16</c:f>
+              <c:f>GOSlim_silo2!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>36.130000000000003</c:v>
                 </c:pt>
@@ -1059,6 +1104,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1098,9 +1152,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOSlim_silo2!$A$2:$A$16</c:f>
+              <c:f>GOSlim_silo2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Biological process</c:v>
                 </c:pt>
@@ -1145,16 +1199,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Organelle organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cell homeostasis</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cytoskeleton organizatino and biogenesis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOSlim_silo2!$E$2:$E$16</c:f>
+              <c:f>GOSlim_silo2!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>37.08</c:v>
                 </c:pt>
@@ -1198,6 +1261,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1237,9 +1309,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOSlim_silo2!$A$2:$A$16</c:f>
+              <c:f>GOSlim_silo2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Biological process</c:v>
                 </c:pt>
@@ -1284,16 +1356,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Organelle organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cell homeostasis</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cytoskeleton organizatino and biogenesis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOSlim_silo2!$F$2:$F$16</c:f>
+              <c:f>GOSlim_silo2!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>37.75</c:v>
                 </c:pt>
@@ -1337,6 +1418,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1376,9 +1466,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOSlim_silo2!$A$2:$A$16</c:f>
+              <c:f>GOSlim_silo2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Biological process</c:v>
                 </c:pt>
@@ -1423,16 +1513,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Organelle organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cell homeostasis</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cytoskeleton organizatino and biogenesis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOSlim_silo2!$G$2:$G$16</c:f>
+              <c:f>GOSlim_silo2!$G$2:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>34.700000000000003</c:v>
                 </c:pt>
@@ -1477,6 +1576,15 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1515,9 +1623,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOSlim_silo2!$A$2:$A$16</c:f>
+              <c:f>GOSlim_silo2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Biological process</c:v>
                 </c:pt>
@@ -1562,16 +1670,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Organelle organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cell homeostasis</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cytoskeleton organizatino and biogenesis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOSlim_silo2!$H$2:$H$16</c:f>
+              <c:f>GOSlim_silo2!$H$2:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>36.81</c:v>
                 </c:pt>
@@ -1615,6 +1732,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1654,9 +1780,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GOSlim_silo2!$A$2:$A$16</c:f>
+              <c:f>GOSlim_silo2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Biological process</c:v>
                 </c:pt>
@@ -1701,16 +1827,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Lipid metabolism</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Organelle organization and biogenesis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cell homeostasis</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Cytoskeleton organizatino and biogenesis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GOSlim_silo2!$I$2:$I$16</c:f>
+              <c:f>GOSlim_silo2!$I$2:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>39.090000000000003</c:v>
                 </c:pt>
@@ -1754,6 +1889,15 @@
                   <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3536,6 +3680,300 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-2718-4A69-81AC-6CA4C2827FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim_silo2!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Organelle organization and biogenesis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim_silo2!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim_silo2!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D962-4503-9A93-D610380C9D76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim_silo2!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cell homeostasis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim_silo2!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim_silo2!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D962-4503-9A93-D610380C9D76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GOSlim_silo2!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cytoskeleton organizatino and biogenesis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>GOSlim_silo2!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Pooled Larvae Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GOSlim_silo2!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D962-4503-9A93-D610380C9D76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14362,14 +14800,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419098</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>771523</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14398,13 +14836,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76197</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
+      <xdr:colOff>238124</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
@@ -16271,8 +16709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16877,7 +17315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
@@ -17441,35 +17879,35 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f>SUM(B2:B17)</f>
+        <f t="shared" ref="B20:I20" si="0">SUM(B2:B17)</f>
         <v>100</v>
       </c>
       <c r="C20">
-        <f>SUM(C2:C17)</f>
+        <f t="shared" si="0"/>
         <v>99.98</v>
       </c>
       <c r="D20">
-        <f>SUM(D2:D17)</f>
+        <f t="shared" si="0"/>
         <v>99.990000000000023</v>
       </c>
       <c r="E20">
-        <f>SUM(E2:E17)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F20">
-        <f>SUM(F2:F17)</f>
+        <f t="shared" si="0"/>
         <v>99.990000000000009</v>
       </c>
       <c r="G20">
-        <f>SUM(G2:G17)</f>
+        <f t="shared" si="0"/>
         <v>99.979999999999976</v>
       </c>
       <c r="H20">
-        <f>SUM(H2:H17)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
       <c r="I20">
-        <f>SUM(I2:I17)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
@@ -18047,27 +18485,27 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f>SUM(B2:B19)</f>
+        <f t="shared" ref="B20:G20" si="0">SUM(B2:B19)</f>
         <v>100</v>
       </c>
       <c r="C20">
-        <f>SUM(C2:C19)</f>
+        <f t="shared" si="0"/>
         <v>99.99</v>
       </c>
       <c r="D20">
-        <f>SUM(D2:D19)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E20">
-        <f>SUM(E2:E19)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
       <c r="F20">
-        <f>SUM(F2:F19)</f>
+        <f t="shared" si="0"/>
         <v>99.99</v>
       </c>
       <c r="G20">
-        <f>SUM(G2:G19)</f>
+        <f t="shared" si="0"/>
         <v>99.99</v>
       </c>
       <c r="H20">
